--- a/df_ex1_excel.xlsx
+++ b/df_ex1_excel.xlsx
@@ -583,7 +583,7 @@
         <v>10800</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -644,7 +644,7 @@
         <v>44000</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -705,7 +705,7 @@
         <v>165850</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -766,7 +766,7 @@
         <v>194114</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -827,7 +827,7 @@
         <v>63000</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -888,7 +888,7 @@
         <v>2700000</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -949,7 +949,7 @@
         <v>111772</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1010,7 +1010,7 @@
         <v>3520</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1071,7 +1071,7 @@
         <v>242500</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1132,7 +1132,7 @@
         <v>66000</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1193,7 +1193,7 @@
         <v>11608</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1315,7 +1315,7 @@
         <v>1720</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1376,7 +1376,7 @@
         <v>26400</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1437,7 +1437,7 @@
         <v>3520</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1498,7 +1498,7 @@
         <v>550763</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1559,7 +1559,7 @@
         <v>33000</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1864,7 +1864,7 @@
         <v>26400</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1925,7 +1925,7 @@
         <v>1974261312</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1986,7 +1986,7 @@
         <v>5400</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2047,7 +2047,7 @@
         <v>77000</v>
       </c>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2291,7 +2291,7 @@
         <v>9240</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -2474,7 +2474,7 @@
         <v>141843</v>
       </c>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2535,7 +2535,7 @@
         <v>5400</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2596,7 +2596,7 @@
         <v>600000</v>
       </c>
       <c r="S35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -2779,7 +2779,7 @@
         <v>14720</v>
       </c>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -2840,7 +2840,7 @@
         <v>17760</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -3023,7 +3023,7 @@
         <v>12420</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -3145,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -3206,7 +3206,7 @@
         <v>159100</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -3267,7 +3267,7 @@
         <v>34400</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -3328,7 +3328,7 @@
         <v>66000</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -3389,7 +3389,7 @@
         <v>2214006</v>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -3450,7 +3450,7 @@
         <v>10174150</v>
       </c>
       <c r="S49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -3511,7 +3511,7 @@
         <v>45000</v>
       </c>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -3633,7 +3633,7 @@
         <v>5400</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -3755,7 +3755,7 @@
         <v>5400</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -3877,7 +3877,7 @@
         <v>8000</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -3938,7 +3938,7 @@
         <v>110920</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -4121,7 +4121,7 @@
         <v>43000</v>
       </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -4243,7 +4243,7 @@
         <v>15540</v>
       </c>
       <c r="S62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -4365,7 +4365,7 @@
         <v>278547</v>
       </c>
       <c r="S64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -4426,7 +4426,7 @@
         <v>720</v>
       </c>
       <c r="S65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -4548,7 +4548,7 @@
         <v>47082862</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -4609,7 +4609,7 @@
         <v>17200</v>
       </c>
       <c r="S68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -4792,7 +4792,7 @@
         <v>720</v>
       </c>
       <c r="S71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -4853,7 +4853,7 @@
         <v>235399</v>
       </c>
       <c r="S72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -4975,7 +4975,7 @@
         <v>6210</v>
       </c>
       <c r="S74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -5097,7 +5097,7 @@
         <v>122808320</v>
       </c>
       <c r="S76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -5219,7 +5219,7 @@
         <v>39600</v>
       </c>
       <c r="S78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -5280,7 +5280,7 @@
         <v>78000</v>
       </c>
       <c r="S79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -5402,7 +5402,7 @@
         <v>2806</v>
       </c>
       <c r="S81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -5463,7 +5463,7 @@
         <v>13500</v>
       </c>
       <c r="S82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -5585,7 +5585,7 @@
         <v>2150400</v>
       </c>
       <c r="S84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -5646,7 +5646,7 @@
         <v>38379</v>
       </c>
       <c r="S85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -5707,7 +5707,7 @@
         <v>2468</v>
       </c>
       <c r="S86" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -5768,7 +5768,7 @@
         <v>10331455</v>
       </c>
       <c r="S87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -5829,7 +5829,7 @@
         <v>720</v>
       </c>
       <c r="S88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -5890,7 +5890,7 @@
         <v>5200</v>
       </c>
       <c r="S89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -6012,7 +6012,7 @@
         <v>43000</v>
       </c>
       <c r="S91" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -6073,7 +6073,7 @@
         <v>2200</v>
       </c>
       <c r="S92" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -6134,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="S93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -6195,7 +6195,7 @@
         <v>3200</v>
       </c>
       <c r="S94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -6256,7 +6256,7 @@
         <v>1280</v>
       </c>
       <c r="S95" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -6378,7 +6378,7 @@
         <v>4320</v>
       </c>
       <c r="S97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -6622,7 +6622,7 @@
         <v>720</v>
       </c>
       <c r="S101" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -6805,7 +6805,7 @@
         <v>28480345</v>
       </c>
       <c r="S104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -6927,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="S106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -7293,7 +7293,7 @@
         <v>3840</v>
       </c>
       <c r="S112" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -7354,7 +7354,7 @@
         <v>23851372</v>
       </c>
       <c r="S113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -7781,7 +7781,7 @@
         <v>40500</v>
       </c>
       <c r="S120" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
@@ -7842,7 +7842,7 @@
         <v>34030</v>
       </c>
       <c r="S121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -8025,7 +8025,7 @@
         <v>8800</v>
       </c>
       <c r="S124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
@@ -8330,7 +8330,7 @@
         <v>3300</v>
       </c>
       <c r="S129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -8391,7 +8391,7 @@
         <v>62400</v>
       </c>
       <c r="S130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -8513,7 +8513,7 @@
         <v>186938</v>
       </c>
       <c r="S132" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
@@ -8574,7 +8574,7 @@
         <v>0</v>
       </c>
       <c r="S133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -8635,7 +8635,7 @@
         <v>1760</v>
       </c>
       <c r="S134" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135">
@@ -8696,7 +8696,7 @@
         <v>7360</v>
       </c>
       <c r="S135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -8818,7 +8818,7 @@
         <v>8787783</v>
       </c>
       <c r="S137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -8879,7 +8879,7 @@
         <v>46600</v>
       </c>
       <c r="S138" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
@@ -9001,7 +9001,7 @@
         <v>3101924</v>
       </c>
       <c r="S140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141">
@@ -9062,7 +9062,7 @@
         <v>36321</v>
       </c>
       <c r="S141" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142">
@@ -9184,7 +9184,7 @@
         <v>43779872</v>
       </c>
       <c r="S143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -9245,7 +9245,7 @@
         <v>14520</v>
       </c>
       <c r="S144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -9306,7 +9306,7 @@
         <v>32400</v>
       </c>
       <c r="S145" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -9428,7 +9428,7 @@
         <v>2430</v>
       </c>
       <c r="S147" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
@@ -9489,7 +9489,7 @@
         <v>1760</v>
       </c>
       <c r="S148" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
@@ -9550,7 +9550,7 @@
         <v>7360</v>
       </c>
       <c r="S149" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150">
@@ -9794,7 +9794,7 @@
         <v>880</v>
       </c>
       <c r="S153" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154">
@@ -9855,7 +9855,7 @@
         <v>102600</v>
       </c>
       <c r="S154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
@@ -9916,7 +9916,7 @@
         <v>2379050</v>
       </c>
       <c r="S155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156">
@@ -10099,7 +10099,7 @@
         <v>87400</v>
       </c>
       <c r="S158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159">
@@ -10160,7 +10160,7 @@
         <v>77058410</v>
       </c>
       <c r="S159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160">
@@ -10221,7 +10221,7 @@
         <v>2700</v>
       </c>
       <c r="S160" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161">
@@ -10282,7 +10282,7 @@
         <v>5120</v>
       </c>
       <c r="S161" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162">
@@ -10465,7 +10465,7 @@
         <v>22215</v>
       </c>
       <c r="S164" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -10526,7 +10526,7 @@
         <v>13200</v>
       </c>
       <c r="S165" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166">
@@ -10709,7 +10709,7 @@
         <v>1065943</v>
       </c>
       <c r="S168" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169">
@@ -10831,7 +10831,7 @@
         <v>637513</v>
       </c>
       <c r="S170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -10892,7 +10892,7 @@
         <v>720</v>
       </c>
       <c r="S171" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -10953,7 +10953,7 @@
         <v>81400</v>
       </c>
       <c r="S172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -11014,7 +11014,7 @@
         <v>33040</v>
       </c>
       <c r="S173" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -11075,7 +11075,7 @@
         <v>19980</v>
       </c>
       <c r="S174" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -11197,7 +11197,7 @@
         <v>3960</v>
       </c>
       <c r="S176" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177">
@@ -11380,7 +11380,7 @@
         <v>1385</v>
       </c>
       <c r="S179" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180">
@@ -11563,7 +11563,7 @@
         <v>27440</v>
       </c>
       <c r="S182" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -11685,7 +11685,7 @@
         <v>122100</v>
       </c>
       <c r="S184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -11746,7 +11746,7 @@
         <v>98900</v>
       </c>
       <c r="S185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -11807,7 +11807,7 @@
         <v>2220000</v>
       </c>
       <c r="S186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -11868,7 +11868,7 @@
         <v>89100</v>
       </c>
       <c r="S187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -11990,7 +11990,7 @@
         <v>9900</v>
       </c>
       <c r="S189" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -12234,7 +12234,7 @@
         <v>87319</v>
       </c>
       <c r="S193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -12295,7 +12295,7 @@
         <v>140400</v>
       </c>
       <c r="S194" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -12539,7 +12539,7 @@
         <v>4320</v>
       </c>
       <c r="S198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
@@ -12722,7 +12722,7 @@
         <v>46200</v>
       </c>
       <c r="S201" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202">
@@ -12844,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="S203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -12966,7 +12966,7 @@
         <v>5120</v>
       </c>
       <c r="S205" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206">
@@ -13088,7 +13088,7 @@
         <v>294235</v>
       </c>
       <c r="S207" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208">
@@ -13149,7 +13149,7 @@
         <v>32400</v>
       </c>
       <c r="S208" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -13271,7 +13271,7 @@
         <v>4400</v>
       </c>
       <c r="S210" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -13332,7 +13332,7 @@
         <v>2640</v>
       </c>
       <c r="S211" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212">
@@ -13393,7 +13393,7 @@
         <v>97260</v>
       </c>
       <c r="S212" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213">
@@ -13637,7 +13637,7 @@
         <v>0</v>
       </c>
       <c r="S216" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217">
@@ -13759,7 +13759,7 @@
         <v>1320</v>
       </c>
       <c r="S218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -13820,7 +13820,7 @@
         <v>169974</v>
       </c>
       <c r="S219" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220">
@@ -14186,7 +14186,7 @@
         <v>32400</v>
       </c>
       <c r="S225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -14247,7 +14247,7 @@
         <v>282320</v>
       </c>
       <c r="S226" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227">
@@ -14369,7 +14369,7 @@
         <v>64296176</v>
       </c>
       <c r="S228" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -14430,7 +14430,7 @@
         <v>4376446</v>
       </c>
       <c r="S229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -14552,7 +14552,7 @@
         <v>4300</v>
       </c>
       <c r="S231" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232">
@@ -14613,7 +14613,7 @@
         <v>6480</v>
       </c>
       <c r="S232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -14735,7 +14735,7 @@
         <v>7726374</v>
       </c>
       <c r="S234" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -14918,7 +14918,7 @@
         <v>1760</v>
       </c>
       <c r="S237" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238">
@@ -14979,7 +14979,7 @@
         <v>3960</v>
       </c>
       <c r="S238" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239">
@@ -15101,7 +15101,7 @@
         <v>0</v>
       </c>
       <c r="S240" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241">
@@ -15223,7 +15223,7 @@
         <v>402916</v>
       </c>
       <c r="S242" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243">
@@ -15284,7 +15284,7 @@
         <v>19980</v>
       </c>
       <c r="S243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -15345,7 +15345,7 @@
         <v>6400</v>
       </c>
       <c r="S244" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245">
@@ -15589,7 +15589,7 @@
         <v>66000</v>
       </c>
       <c r="S248" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249">
@@ -15711,7 +15711,7 @@
         <v>39600</v>
       </c>
       <c r="S250" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251">
@@ -15833,7 +15833,7 @@
         <v>1742331</v>
       </c>
       <c r="S252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -15955,7 +15955,7 @@
         <v>161832</v>
       </c>
       <c r="S254" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255">
@@ -16077,7 +16077,7 @@
         <v>13710238</v>
       </c>
       <c r="S256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -16138,7 +16138,7 @@
         <v>0</v>
       </c>
       <c r="S257" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258">
@@ -16321,7 +16321,7 @@
         <v>27000</v>
       </c>
       <c r="S260" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261">
@@ -16504,7 +16504,7 @@
         <v>15985186</v>
       </c>
       <c r="S263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -16687,7 +16687,7 @@
         <v>2577789</v>
       </c>
       <c r="S266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -16809,7 +16809,7 @@
         <v>26471</v>
       </c>
       <c r="S268" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269">
@@ -17236,7 +17236,7 @@
         <v>5180</v>
       </c>
       <c r="S275" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276">
@@ -17480,7 +17480,7 @@
         <v>21600</v>
       </c>
       <c r="S279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280">
@@ -17602,7 +17602,7 @@
         <v>83200</v>
       </c>
       <c r="S281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282">
@@ -17846,7 +17846,7 @@
         <v>6480</v>
       </c>
       <c r="S285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286">
@@ -17907,7 +17907,7 @@
         <v>13000</v>
       </c>
       <c r="S286" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287">
@@ -17968,7 +17968,7 @@
         <v>17820</v>
       </c>
       <c r="S287" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288">
@@ -18029,7 +18029,7 @@
         <v>51600</v>
       </c>
       <c r="S288" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289">
@@ -18090,7 +18090,7 @@
         <v>0</v>
       </c>
       <c r="S289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290">
@@ -18151,7 +18151,7 @@
         <v>3234354</v>
       </c>
       <c r="S290" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -18334,7 +18334,7 @@
         <v>910430</v>
       </c>
       <c r="S293" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294">
@@ -18456,7 +18456,7 @@
         <v>4440</v>
       </c>
       <c r="S295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -18639,7 +18639,7 @@
         <v>16505</v>
       </c>
       <c r="S298" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -18700,7 +18700,7 @@
         <v>3520</v>
       </c>
       <c r="S299" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="300">
@@ -18761,7 +18761,7 @@
         <v>36000</v>
       </c>
       <c r="S300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -18822,7 +18822,7 @@
         <v>1480</v>
       </c>
       <c r="S301" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="302">
@@ -19066,7 +19066,7 @@
         <v>44000</v>
       </c>
       <c r="S305" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="306">
@@ -19188,7 +19188,7 @@
         <v>20800</v>
       </c>
       <c r="S307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308">
@@ -19371,7 +19371,7 @@
         <v>3200</v>
       </c>
       <c r="S310" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="311">
@@ -19432,7 +19432,7 @@
         <v>68400</v>
       </c>
       <c r="S311" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -19493,7 +19493,7 @@
         <v>12100</v>
       </c>
       <c r="S312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -19737,7 +19737,7 @@
         <v>0</v>
       </c>
       <c r="S316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -19798,7 +19798,7 @@
         <v>5400</v>
       </c>
       <c r="S317" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -19859,7 +19859,7 @@
         <v>1272775</v>
       </c>
       <c r="S318" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -19920,7 +19920,7 @@
         <v>1493229</v>
       </c>
       <c r="S319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -19981,7 +19981,7 @@
         <v>4860</v>
       </c>
       <c r="S320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -20103,7 +20103,7 @@
         <v>6160</v>
       </c>
       <c r="S322" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="323">
@@ -20164,7 +20164,7 @@
         <v>14520</v>
       </c>
       <c r="S323" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -20225,7 +20225,7 @@
         <v>69000</v>
       </c>
       <c r="S324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -20347,7 +20347,7 @@
         <v>96098</v>
       </c>
       <c r="S326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -20530,7 +20530,7 @@
         <v>0</v>
       </c>
       <c r="S329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330">
@@ -20591,7 +20591,7 @@
         <v>720</v>
       </c>
       <c r="S330" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="331">
@@ -20713,7 +20713,7 @@
         <v>8910</v>
       </c>
       <c r="S332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -20774,7 +20774,7 @@
         <v>0</v>
       </c>
       <c r="S333" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -20835,7 +20835,7 @@
         <v>98900</v>
       </c>
       <c r="S334" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -20957,7 +20957,7 @@
         <v>8800</v>
       </c>
       <c r="S336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -21079,7 +21079,7 @@
         <v>0</v>
       </c>
       <c r="S338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -21140,7 +21140,7 @@
         <v>9710</v>
       </c>
       <c r="S339" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="340">
@@ -21323,7 +21323,7 @@
         <v>5760</v>
       </c>
       <c r="S342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -21384,7 +21384,7 @@
         <v>720</v>
       </c>
       <c r="S343" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="344">
@@ -21445,7 +21445,7 @@
         <v>3402000</v>
       </c>
       <c r="S344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -21506,7 +21506,7 @@
         <v>16905593</v>
       </c>
       <c r="S345" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -21567,7 +21567,7 @@
         <v>0</v>
       </c>
       <c r="S346" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -21689,7 +21689,7 @@
         <v>78747</v>
       </c>
       <c r="S348" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="349">
@@ -21750,7 +21750,7 @@
         <v>19800</v>
       </c>
       <c r="S349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -21811,7 +21811,7 @@
         <v>0</v>
       </c>
       <c r="S350" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="351">
@@ -21872,7 +21872,7 @@
         <v>599353</v>
       </c>
       <c r="S351" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -21933,7 +21933,7 @@
         <v>2640</v>
       </c>
       <c r="S352" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353">
@@ -21994,7 +21994,7 @@
         <v>19800</v>
       </c>
       <c r="S353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -22055,7 +22055,7 @@
         <v>1320</v>
       </c>
       <c r="S354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
@@ -22177,7 +22177,7 @@
         <v>0</v>
       </c>
       <c r="S356" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -22238,7 +22238,7 @@
         <v>4400</v>
       </c>
       <c r="S357" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -22299,7 +22299,7 @@
         <v>7360</v>
       </c>
       <c r="S358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -22482,7 +22482,7 @@
         <v>286758144</v>
       </c>
       <c r="S361" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362">
@@ -22543,7 +22543,7 @@
         <v>115027728</v>
       </c>
       <c r="S362" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363">
@@ -22604,7 +22604,7 @@
         <v>115027728</v>
       </c>
       <c r="S363" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="364">
@@ -22848,7 +22848,7 @@
         <v>3050463</v>
       </c>
       <c r="S367" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -22909,7 +22909,7 @@
         <v>658600</v>
       </c>
       <c r="S368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369">
@@ -22970,7 +22970,7 @@
         <v>90191</v>
       </c>
       <c r="S369" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -23031,7 +23031,7 @@
         <v>10800</v>
       </c>
       <c r="S370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
@@ -23092,7 +23092,7 @@
         <v>7560</v>
       </c>
       <c r="S371" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="372">
@@ -23153,7 +23153,7 @@
         <v>52800</v>
       </c>
       <c r="S372" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373">
@@ -23336,7 +23336,7 @@
         <v>12420</v>
       </c>
       <c r="S375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -23458,7 +23458,7 @@
         <v>39600</v>
       </c>
       <c r="S377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -23519,7 +23519,7 @@
         <v>30800</v>
       </c>
       <c r="S378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
@@ -23580,7 +23580,7 @@
         <v>8100</v>
       </c>
       <c r="S379" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380">
@@ -23641,7 +23641,7 @@
         <v>0</v>
       </c>
       <c r="S380" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="381">
@@ -23885,7 +23885,7 @@
         <v>5200</v>
       </c>
       <c r="S384" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="385">
@@ -24007,7 +24007,7 @@
         <v>2618442</v>
       </c>
       <c r="S386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -24068,7 +24068,7 @@
         <v>3960</v>
       </c>
       <c r="S387" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="388">
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="S392" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="393">
@@ -24556,7 +24556,7 @@
         <v>38700</v>
       </c>
       <c r="S395" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -24739,7 +24739,7 @@
         <v>5180</v>
       </c>
       <c r="S398" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -25044,7 +25044,7 @@
         <v>2640</v>
       </c>
       <c r="S403" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="404">
@@ -25166,7 +25166,7 @@
         <v>12210</v>
       </c>
       <c r="S405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -25227,7 +25227,7 @@
         <v>122100</v>
       </c>
       <c r="S406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407">
@@ -25349,7 +25349,7 @@
         <v>71200</v>
       </c>
       <c r="S408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
@@ -25776,7 +25776,7 @@
         <v>844603</v>
       </c>
       <c r="S415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -25837,7 +25837,7 @@
         <v>56104</v>
       </c>
       <c r="S416" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="417">
@@ -25898,7 +25898,7 @@
         <v>0</v>
       </c>
       <c r="S417" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="418">
@@ -26020,7 +26020,7 @@
         <v>9900</v>
       </c>
       <c r="S419" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="420">
@@ -26081,7 +26081,7 @@
         <v>3330</v>
       </c>
       <c r="S420" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="421">
@@ -26142,7 +26142,7 @@
         <v>1280318</v>
       </c>
       <c r="S421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -26203,7 +26203,7 @@
         <v>254575</v>
       </c>
       <c r="S422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423">
@@ -26264,7 +26264,7 @@
         <v>0</v>
       </c>
       <c r="S423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424">
@@ -26325,7 +26325,7 @@
         <v>13775</v>
       </c>
       <c r="S424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -26386,7 +26386,7 @@
         <v>310500</v>
       </c>
       <c r="S425" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="426">
@@ -26569,7 +26569,7 @@
         <v>0</v>
       </c>
       <c r="S428" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="429">
@@ -26630,7 +26630,7 @@
         <v>8800</v>
       </c>
       <c r="S429" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -26752,7 +26752,7 @@
         <v>1760</v>
       </c>
       <c r="S431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
@@ -26813,7 +26813,7 @@
         <v>86000</v>
       </c>
       <c r="S432" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="433">
@@ -26874,7 +26874,7 @@
         <v>51077</v>
       </c>
       <c r="S433" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -26935,7 +26935,7 @@
         <v>926910</v>
       </c>
       <c r="S434" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -27118,7 +27118,7 @@
         <v>8640</v>
       </c>
       <c r="S437" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="438">
@@ -27301,7 +27301,7 @@
         <v>7920</v>
       </c>
       <c r="S440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
@@ -27362,7 +27362,7 @@
         <v>3240</v>
       </c>
       <c r="S441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
@@ -27545,7 +27545,7 @@
         <v>981695</v>
       </c>
       <c r="S444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
@@ -27606,7 +27606,7 @@
         <v>284800</v>
       </c>
       <c r="S445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
@@ -27728,7 +27728,7 @@
         <v>1920</v>
       </c>
       <c r="S447" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -27789,7 +27789,7 @@
         <v>3486527</v>
       </c>
       <c r="S448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
@@ -27850,7 +27850,7 @@
         <v>0</v>
       </c>
       <c r="S449" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="450">
@@ -27972,7 +27972,7 @@
         <v>192400</v>
       </c>
       <c r="S451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
@@ -28277,7 +28277,7 @@
         <v>181500</v>
       </c>
       <c r="S456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457">
@@ -28338,7 +28338,7 @@
         <v>8640</v>
       </c>
       <c r="S457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
@@ -28460,7 +28460,7 @@
         <v>41400</v>
       </c>
       <c r="S459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460">
@@ -28643,7 +28643,7 @@
         <v>140600</v>
       </c>
       <c r="S462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
@@ -28704,7 +28704,7 @@
         <v>193410</v>
       </c>
       <c r="S463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464">
@@ -28765,7 +28765,7 @@
         <v>375000</v>
       </c>
       <c r="S464" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="465">
@@ -28826,7 +28826,7 @@
         <v>373972</v>
       </c>
       <c r="S465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
@@ -29009,7 +29009,7 @@
         <v>13751679</v>
       </c>
       <c r="S468" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -29131,7 +29131,7 @@
         <v>8100</v>
       </c>
       <c r="S470" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -29314,7 +29314,7 @@
         <v>0</v>
       </c>
       <c r="S473" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="474">
@@ -29375,7 +29375,7 @@
         <v>7560</v>
       </c>
       <c r="S474" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="475">
@@ -29497,7 +29497,7 @@
         <v>178000</v>
       </c>
       <c r="S476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
@@ -29558,7 +29558,7 @@
         <v>168000</v>
       </c>
       <c r="S477" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="478">
@@ -29619,7 +29619,7 @@
         <v>12420</v>
       </c>
       <c r="S478" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="479">
@@ -29680,7 +29680,7 @@
         <v>50600</v>
       </c>
       <c r="S479" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="480">
@@ -29802,7 +29802,7 @@
         <v>16200</v>
       </c>
       <c r="S481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
@@ -29863,7 +29863,7 @@
         <v>418602</v>
       </c>
       <c r="S482" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
@@ -29985,7 +29985,7 @@
         <v>3071000</v>
       </c>
       <c r="S484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
@@ -30229,7 +30229,7 @@
         <v>720</v>
       </c>
       <c r="S488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489">
@@ -30351,7 +30351,7 @@
         <v>9900</v>
       </c>
       <c r="S490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
@@ -30412,7 +30412,7 @@
         <v>5400</v>
       </c>
       <c r="S491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -30473,7 +30473,7 @@
         <v>495000</v>
       </c>
       <c r="S492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
@@ -30534,7 +30534,7 @@
         <v>759890</v>
       </c>
       <c r="S493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
@@ -30595,7 +30595,7 @@
         <v>534000</v>
       </c>
       <c r="S494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
@@ -30717,7 +30717,7 @@
         <v>9720</v>
       </c>
       <c r="S496" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
@@ -30839,7 +30839,7 @@
         <v>32400</v>
       </c>
       <c r="S498" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
@@ -30900,7 +30900,7 @@
         <v>5280</v>
       </c>
       <c r="S499" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="500">
@@ -30961,7 +30961,7 @@
         <v>801856</v>
       </c>
       <c r="S500" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501">
@@ -31083,7 +31083,7 @@
         <v>0</v>
       </c>
       <c r="S502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503">
@@ -31144,7 +31144,7 @@
         <v>178000</v>
       </c>
       <c r="S503" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="504">
@@ -31205,7 +31205,7 @@
         <v>0</v>
       </c>
       <c r="S504" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="505">
@@ -31327,7 +31327,7 @@
         <v>35535864</v>
       </c>
       <c r="S506" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="507">
@@ -31388,7 +31388,7 @@
         <v>85775</v>
       </c>
       <c r="S507" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="508">
@@ -31449,7 +31449,7 @@
         <v>2359794</v>
       </c>
       <c r="S508" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
@@ -31693,7 +31693,7 @@
         <v>890951</v>
       </c>
       <c r="S512" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513">
@@ -31754,7 +31754,7 @@
         <v>485990</v>
       </c>
       <c r="S513" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514">
@@ -31815,7 +31815,7 @@
         <v>474744</v>
       </c>
       <c r="S514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
@@ -31876,7 +31876,7 @@
         <v>16200</v>
       </c>
       <c r="S515" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="516">
@@ -31937,7 +31937,7 @@
         <v>1920</v>
       </c>
       <c r="S516" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517">
@@ -31998,7 +31998,7 @@
         <v>658600</v>
       </c>
       <c r="S517" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="518">
@@ -32181,7 +32181,7 @@
         <v>42999</v>
       </c>
       <c r="S520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
@@ -32242,7 +32242,7 @@
         <v>17800</v>
       </c>
       <c r="S521" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522">
@@ -32669,7 +32669,7 @@
         <v>72000</v>
       </c>
       <c r="S528" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
@@ -32913,7 +32913,7 @@
         <v>0</v>
       </c>
       <c r="S532" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="533">
@@ -33157,7 +33157,7 @@
         <v>16200</v>
       </c>
       <c r="S536" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="537">
@@ -33218,7 +33218,7 @@
         <v>720</v>
       </c>
       <c r="S537" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
@@ -33340,7 +33340,7 @@
         <v>38700</v>
       </c>
       <c r="S539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -33523,7 +33523,7 @@
         <v>3826140</v>
       </c>
       <c r="S542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
@@ -33584,7 +33584,7 @@
         <v>8800</v>
       </c>
       <c r="S543" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
@@ -33828,7 +33828,7 @@
         <v>11880</v>
       </c>
       <c r="S547" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
@@ -33889,7 +33889,7 @@
         <v>4066608</v>
       </c>
       <c r="S548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
@@ -34011,7 +34011,7 @@
         <v>7040</v>
       </c>
       <c r="S550" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="551">
@@ -34072,7 +34072,7 @@
         <v>0</v>
       </c>
       <c r="S551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
@@ -34194,7 +34194,7 @@
         <v>720</v>
       </c>
       <c r="S553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -34255,7 +34255,7 @@
         <v>4400</v>
       </c>
       <c r="S554" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="555">
@@ -34560,7 +34560,7 @@
         <v>11840</v>
       </c>
       <c r="S559" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="560">
@@ -34743,7 +34743,7 @@
         <v>5400</v>
       </c>
       <c r="S562" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="563">
@@ -34865,7 +34865,7 @@
         <v>66600</v>
       </c>
       <c r="S564" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="565">
@@ -35048,7 +35048,7 @@
         <v>30800</v>
       </c>
       <c r="S567" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="568">
@@ -35231,7 +35231,7 @@
         <v>135525</v>
       </c>
       <c r="S570" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="571">
@@ -35292,7 +35292,7 @@
         <v>1080</v>
       </c>
       <c r="S571" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="572">
@@ -35353,7 +35353,7 @@
         <v>610148</v>
       </c>
       <c r="S572" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
@@ -35414,7 +35414,7 @@
         <v>268800</v>
       </c>
       <c r="S573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
@@ -35475,7 +35475,7 @@
         <v>130392</v>
       </c>
       <c r="S574" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="575">
@@ -35536,7 +35536,7 @@
         <v>2193658</v>
       </c>
       <c r="S575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
@@ -35597,7 +35597,7 @@
         <v>899416</v>
       </c>
       <c r="S576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
@@ -35658,7 +35658,7 @@
         <v>247178</v>
       </c>
       <c r="S577" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
@@ -35719,7 +35719,7 @@
         <v>77400</v>
       </c>
       <c r="S578" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="579">
@@ -36024,7 +36024,7 @@
         <v>19980</v>
       </c>
       <c r="S583" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
@@ -36085,7 +36085,7 @@
         <v>35200</v>
       </c>
       <c r="S584" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="585">
@@ -36268,7 +36268,7 @@
         <v>8966</v>
       </c>
       <c r="S587" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="588">
@@ -36329,7 +36329,7 @@
         <v>758635</v>
       </c>
       <c r="S588" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
@@ -36390,7 +36390,7 @@
         <v>12834634</v>
       </c>
       <c r="S589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590">
@@ -36451,7 +36451,7 @@
         <v>62100</v>
       </c>
       <c r="S590" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="591">
@@ -36573,7 +36573,7 @@
         <v>22442347</v>
       </c>
       <c r="S592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593">
@@ -36695,7 +36695,7 @@
         <v>347600</v>
       </c>
       <c r="S594" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="595">
@@ -36756,7 +36756,7 @@
         <v>0</v>
       </c>
       <c r="S595" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="596">
@@ -36817,7 +36817,7 @@
         <v>33868633</v>
       </c>
       <c r="S596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597">
@@ -37061,7 +37061,7 @@
         <v>585386</v>
       </c>
       <c r="S600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
@@ -37122,7 +37122,7 @@
         <v>4440</v>
       </c>
       <c r="S601" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="602">
@@ -37183,7 +37183,7 @@
         <v>420078</v>
       </c>
       <c r="S602" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603">
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="S604" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605">
@@ -37366,7 +37366,7 @@
         <v>436500</v>
       </c>
       <c r="S605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606">
@@ -37427,7 +37427,7 @@
         <v>390258</v>
       </c>
       <c r="S606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607">
@@ -37610,7 +37610,7 @@
         <v>43425</v>
       </c>
       <c r="S609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610">
@@ -37671,7 +37671,7 @@
         <v>90000</v>
       </c>
       <c r="S610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
@@ -37732,7 +37732,7 @@
         <v>135779</v>
       </c>
       <c r="S611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612">
@@ -37793,7 +37793,7 @@
         <v>7560</v>
       </c>
       <c r="S612" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="613">
@@ -37854,7 +37854,7 @@
         <v>19800</v>
       </c>
       <c r="S613" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
@@ -37976,7 +37976,7 @@
         <v>0</v>
       </c>
       <c r="S615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616">
@@ -38037,7 +38037,7 @@
         <v>71200</v>
       </c>
       <c r="S616" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="617">
@@ -38159,7 +38159,7 @@
         <v>262334</v>
       </c>
       <c r="S618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619">
@@ -38220,7 +38220,7 @@
         <v>50600</v>
       </c>
       <c r="S619" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="620">
@@ -38281,7 +38281,7 @@
         <v>213600</v>
       </c>
       <c r="S620" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="621">
@@ -38342,7 +38342,7 @@
         <v>0</v>
       </c>
       <c r="S621" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622">
@@ -38403,7 +38403,7 @@
         <v>50600</v>
       </c>
       <c r="S622" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="623">
@@ -38464,7 +38464,7 @@
         <v>9720</v>
       </c>
       <c r="S623" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624">
@@ -38708,7 +38708,7 @@
         <v>172000</v>
       </c>
       <c r="S627" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="628">
@@ -38769,7 +38769,7 @@
         <v>51600</v>
       </c>
       <c r="S628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629">
@@ -38830,7 +38830,7 @@
         <v>0</v>
       </c>
       <c r="S629" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="630">
@@ -38952,7 +38952,7 @@
         <v>122100</v>
       </c>
       <c r="S631" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632">
@@ -39074,7 +39074,7 @@
         <v>20350</v>
       </c>
       <c r="S633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634">
@@ -39318,7 +39318,7 @@
         <v>602287</v>
       </c>
       <c r="S637" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
@@ -39379,7 +39379,7 @@
         <v>10120</v>
       </c>
       <c r="S638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639">
@@ -39501,7 +39501,7 @@
         <v>116100</v>
       </c>
       <c r="S640" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="641">
@@ -39562,7 +39562,7 @@
         <v>0</v>
       </c>
       <c r="S641" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="642">
@@ -39623,7 +39623,7 @@
         <v>4449469</v>
       </c>
       <c r="S642" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643">
@@ -39684,7 +39684,7 @@
         <v>481300</v>
       </c>
       <c r="S643" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644">
@@ -39745,7 +39745,7 @@
         <v>115164</v>
       </c>
       <c r="S644" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="645">
@@ -39806,7 +39806,7 @@
         <v>300000</v>
       </c>
       <c r="S645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646">
@@ -39928,7 +39928,7 @@
         <v>32400</v>
       </c>
       <c r="S647" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648">
@@ -39989,7 +39989,7 @@
         <v>198000</v>
       </c>
       <c r="S648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649">
@@ -40050,7 +40050,7 @@
         <v>1123740</v>
       </c>
       <c r="S649" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="650">
@@ -40111,7 +40111,7 @@
         <v>277956</v>
       </c>
       <c r="S650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651">
@@ -40172,7 +40172,7 @@
         <v>11880</v>
       </c>
       <c r="S651" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="652">
@@ -40294,7 +40294,7 @@
         <v>61200</v>
       </c>
       <c r="S653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654">
@@ -40355,7 +40355,7 @@
         <v>215255</v>
       </c>
       <c r="S654" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655">
@@ -40477,7 +40477,7 @@
         <v>152419</v>
       </c>
       <c r="S656" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657">
@@ -40538,7 +40538,7 @@
         <v>19800</v>
       </c>
       <c r="S657" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
@@ -40599,7 +40599,7 @@
         <v>59400</v>
       </c>
       <c r="S658" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659">
@@ -40782,7 +40782,7 @@
         <v>3240</v>
       </c>
       <c r="S661" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="662">
@@ -40843,7 +40843,7 @@
         <v>8640</v>
       </c>
       <c r="S662" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="663">
@@ -41026,7 +41026,7 @@
         <v>33000</v>
       </c>
       <c r="S665" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="666">
@@ -41087,7 +41087,7 @@
         <v>160200</v>
       </c>
       <c r="S666" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="667">
@@ -41148,7 +41148,7 @@
         <v>7560</v>
       </c>
       <c r="S667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668">
@@ -41209,7 +41209,7 @@
         <v>3200</v>
       </c>
       <c r="S668" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="669">
@@ -41270,7 +41270,7 @@
         <v>122100</v>
       </c>
       <c r="S669" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="670">
@@ -41331,7 +41331,7 @@
         <v>2160</v>
       </c>
       <c r="S670" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="671">
@@ -41392,7 +41392,7 @@
         <v>37800</v>
       </c>
       <c r="S671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672">
@@ -41453,7 +41453,7 @@
         <v>280500</v>
       </c>
       <c r="S672" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="673">
@@ -41514,7 +41514,7 @@
         <v>13200</v>
       </c>
       <c r="S673" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="674">
@@ -41575,7 +41575,7 @@
         <v>45000</v>
       </c>
       <c r="S674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675">
@@ -41636,7 +41636,7 @@
         <v>5280</v>
       </c>
       <c r="S675" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="676">
@@ -41758,7 +41758,7 @@
         <v>88250</v>
       </c>
       <c r="S677" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="678">
@@ -41880,7 +41880,7 @@
         <v>3330</v>
       </c>
       <c r="S679" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="680">
@@ -41941,7 +41941,7 @@
         <v>2470808</v>
       </c>
       <c r="S680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681">
@@ -42002,7 +42002,7 @@
         <v>442074</v>
       </c>
       <c r="S681" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="682">
@@ -42063,7 +42063,7 @@
         <v>51947</v>
       </c>
       <c r="S682" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683">
@@ -42185,7 +42185,7 @@
         <v>91275</v>
       </c>
       <c r="S684" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="685">
@@ -42246,7 +42246,7 @@
         <v>13200000</v>
       </c>
       <c r="S685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686">
@@ -42307,7 +42307,7 @@
         <v>36374</v>
       </c>
       <c r="S686" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="687">
@@ -42429,7 +42429,7 @@
         <v>0</v>
       </c>
       <c r="S688" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="689">
@@ -42490,7 +42490,7 @@
         <v>138159360</v>
       </c>
       <c r="S689" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="690">
@@ -42551,7 +42551,7 @@
         <v>1701032</v>
       </c>
       <c r="S690" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691">
@@ -42795,7 +42795,7 @@
         <v>4837403</v>
       </c>
       <c r="S694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695">
@@ -42856,7 +42856,7 @@
         <v>16040</v>
       </c>
       <c r="S695" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="696">
@@ -43100,7 +43100,7 @@
         <v>30800</v>
       </c>
       <c r="S699" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="700">
@@ -43161,7 +43161,7 @@
         <v>0</v>
       </c>
       <c r="S700" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="701">
@@ -43222,7 +43222,7 @@
         <v>596361</v>
       </c>
       <c r="S701" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="702">
@@ -43466,7 +43466,7 @@
         <v>25004</v>
       </c>
       <c r="S705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706">
@@ -43527,7 +43527,7 @@
         <v>2630628</v>
       </c>
       <c r="S706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707">
@@ -43649,7 +43649,7 @@
         <v>46000</v>
       </c>
       <c r="S708" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="709">
@@ -43771,7 +43771,7 @@
         <v>739505</v>
       </c>
       <c r="S710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
@@ -43893,7 +43893,7 @@
         <v>8750</v>
       </c>
       <c r="S712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713">
@@ -44137,7 +44137,7 @@
         <v>388000</v>
       </c>
       <c r="S716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717">
@@ -44320,7 +44320,7 @@
         <v>23830848</v>
       </c>
       <c r="S719" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720">
@@ -44442,7 +44442,7 @@
         <v>314485</v>
       </c>
       <c r="S721" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="722">
@@ -44503,7 +44503,7 @@
         <v>148775</v>
       </c>
       <c r="S722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723">
@@ -44564,7 +44564,7 @@
         <v>1760</v>
       </c>
       <c r="S723" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="724">
@@ -44747,7 +44747,7 @@
         <v>21160</v>
       </c>
       <c r="S726" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="727">
@@ -44808,7 +44808,7 @@
         <v>15222747</v>
       </c>
       <c r="S727" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="728">
@@ -44869,7 +44869,7 @@
         <v>0</v>
       </c>
       <c r="S728" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729">
@@ -45235,7 +45235,7 @@
         <v>8381691</v>
       </c>
       <c r="S734" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="735">
@@ -45296,7 +45296,7 @@
         <v>11840</v>
       </c>
       <c r="S735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736">
@@ -45357,7 +45357,7 @@
         <v>0</v>
       </c>
       <c r="S736" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737">
@@ -45418,7 +45418,7 @@
         <v>77400</v>
       </c>
       <c r="S737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738">
@@ -45479,7 +45479,7 @@
         <v>48600</v>
       </c>
       <c r="S738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739">
@@ -45662,7 +45662,7 @@
         <v>0</v>
       </c>
       <c r="S741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742">
@@ -45906,7 +45906,7 @@
         <v>213261</v>
       </c>
       <c r="S745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746">
@@ -46028,7 +46028,7 @@
         <v>89100</v>
       </c>
       <c r="S747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748">
@@ -46394,7 +46394,7 @@
         <v>54000</v>
       </c>
       <c r="S753" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754">
@@ -46455,7 +46455,7 @@
         <v>1496802</v>
       </c>
       <c r="S754" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755">
@@ -46760,7 +46760,7 @@
         <v>4395151</v>
       </c>
       <c r="S759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760">
@@ -46821,7 +46821,7 @@
         <v>4395151</v>
       </c>
       <c r="S760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761">
@@ -46882,7 +46882,7 @@
         <v>6160</v>
       </c>
       <c r="S761" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="762">
@@ -47187,7 +47187,7 @@
         <v>412182</v>
       </c>
       <c r="S766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767">
@@ -47309,7 +47309,7 @@
         <v>13200</v>
       </c>
       <c r="S768" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="769">
@@ -47370,7 +47370,7 @@
         <v>1334381</v>
       </c>
       <c r="S769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770">
@@ -47492,7 +47492,7 @@
         <v>142630</v>
       </c>
       <c r="S771" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="772">
@@ -47919,7 +47919,7 @@
         <v>4205149</v>
       </c>
       <c r="S778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779">
@@ -47980,7 +47980,7 @@
         <v>66000</v>
       </c>
       <c r="S779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780">
@@ -48285,7 +48285,7 @@
         <v>216000</v>
       </c>
       <c r="S784" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785">
@@ -48590,7 +48590,7 @@
         <v>2603335</v>
       </c>
       <c r="S789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790">
@@ -48651,7 +48651,7 @@
         <v>8732060</v>
       </c>
       <c r="S790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791">
@@ -48773,7 +48773,7 @@
         <v>52800</v>
       </c>
       <c r="S792" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793">
@@ -48895,7 +48895,7 @@
         <v>284800</v>
       </c>
       <c r="S794" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="795">
@@ -48956,7 +48956,7 @@
         <v>284800</v>
       </c>
       <c r="S795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796">
@@ -49017,7 +49017,7 @@
         <v>0</v>
       </c>
       <c r="S796" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797">
@@ -49078,7 +49078,7 @@
         <v>17800</v>
       </c>
       <c r="S797" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="798">
@@ -49322,7 +49322,7 @@
         <v>840</v>
       </c>
       <c r="S801" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="802">
@@ -49444,7 +49444,7 @@
         <v>9900</v>
       </c>
       <c r="S803" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804">
@@ -49505,7 +49505,7 @@
         <v>23830848</v>
       </c>
       <c r="S804" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805">
@@ -49627,7 +49627,7 @@
         <v>2889045</v>
       </c>
       <c r="S806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807">
@@ -49749,7 +49749,7 @@
         <v>60000</v>
       </c>
       <c r="S808" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="809">
@@ -49810,7 +49810,7 @@
         <v>11013975</v>
       </c>
       <c r="S809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810">
@@ -49932,7 +49932,7 @@
         <v>19980</v>
       </c>
       <c r="S811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812">
@@ -49993,7 +49993,7 @@
         <v>1760</v>
       </c>
       <c r="S812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813">
@@ -50054,7 +50054,7 @@
         <v>81000</v>
       </c>
       <c r="S813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814">
@@ -50176,7 +50176,7 @@
         <v>21600</v>
       </c>
       <c r="S815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816">
@@ -50359,7 +50359,7 @@
         <v>0</v>
       </c>
       <c r="S818" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819">
@@ -50420,7 +50420,7 @@
         <v>13064724</v>
       </c>
       <c r="S819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820">
@@ -50542,7 +50542,7 @@
         <v>293689</v>
       </c>
       <c r="S821" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="822">
@@ -50664,7 +50664,7 @@
         <v>2508</v>
       </c>
       <c r="S823" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="824">
@@ -50725,7 +50725,7 @@
         <v>7200000</v>
       </c>
       <c r="S824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825">
@@ -50847,7 +50847,7 @@
         <v>599598</v>
       </c>
       <c r="S826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827">
@@ -50969,7 +50969,7 @@
         <v>16200</v>
       </c>
       <c r="S828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829">
@@ -51030,7 +51030,7 @@
         <v>6160</v>
       </c>
       <c r="S829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830">
@@ -51091,7 +51091,7 @@
         <v>825036</v>
       </c>
       <c r="S830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831">
@@ -51152,7 +51152,7 @@
         <v>0</v>
       </c>
       <c r="S831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832">
@@ -51274,7 +51274,7 @@
         <v>11100</v>
       </c>
       <c r="S833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834">
@@ -51335,7 +51335,7 @@
         <v>14580</v>
       </c>
       <c r="S834" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835">
@@ -51457,7 +51457,7 @@
         <v>50600</v>
       </c>
       <c r="S836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837">
@@ -51518,7 +51518,7 @@
         <v>125000</v>
       </c>
       <c r="S837" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838">
@@ -51640,7 +51640,7 @@
         <v>4042943</v>
       </c>
       <c r="S839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840">
@@ -51762,7 +51762,7 @@
         <v>48622</v>
       </c>
       <c r="S841" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="842">
@@ -51823,7 +51823,7 @@
         <v>14580</v>
       </c>
       <c r="S842" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="843">
@@ -51884,7 +51884,7 @@
         <v>46200</v>
       </c>
       <c r="S843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844">
@@ -51945,7 +51945,7 @@
         <v>299767</v>
       </c>
       <c r="S844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845">
@@ -52067,7 +52067,7 @@
         <v>387488</v>
       </c>
       <c r="S846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847">
@@ -52128,7 +52128,7 @@
         <v>9900</v>
       </c>
       <c r="S847" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="848">
@@ -52189,7 +52189,7 @@
         <v>6480</v>
       </c>
       <c r="S848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849">
@@ -52250,7 +52250,7 @@
         <v>43200</v>
       </c>
       <c r="S849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850">
@@ -52311,7 +52311,7 @@
         <v>99000</v>
       </c>
       <c r="S850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851">
@@ -52372,7 +52372,7 @@
         <v>123282</v>
       </c>
       <c r="S851" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="852">
@@ -52555,7 +52555,7 @@
         <v>1437781</v>
       </c>
       <c r="S854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855">
@@ -52677,7 +52677,7 @@
         <v>13690</v>
       </c>
       <c r="S856" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="857">
@@ -52738,7 +52738,7 @@
         <v>53154</v>
       </c>
       <c r="S857" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="858">
@@ -52799,7 +52799,7 @@
         <v>4400</v>
       </c>
       <c r="S858" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="859">
@@ -52860,7 +52860,7 @@
         <v>2279366</v>
       </c>
       <c r="S859" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="860">
@@ -53104,7 +53104,7 @@
         <v>53400</v>
       </c>
       <c r="S863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864">
@@ -53165,7 +53165,7 @@
         <v>32400</v>
       </c>
       <c r="S864" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="865">
@@ -53226,7 +53226,7 @@
         <v>689261</v>
       </c>
       <c r="S865" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866">
@@ -53287,7 +53287,7 @@
         <v>224400</v>
       </c>
       <c r="S866" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867">
@@ -53409,7 +53409,7 @@
         <v>1782205</v>
       </c>
       <c r="S868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869">
@@ -53653,7 +53653,7 @@
         <v>2144744</v>
       </c>
       <c r="S872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873">
@@ -53714,7 +53714,7 @@
         <v>10329957</v>
       </c>
       <c r="S873" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874">
@@ -53836,7 +53836,7 @@
         <v>797468</v>
       </c>
       <c r="S875" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="876">
@@ -53897,7 +53897,7 @@
         <v>280195</v>
       </c>
       <c r="S876" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877">
@@ -54019,7 +54019,7 @@
         <v>16200</v>
       </c>
       <c r="S878" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879">
@@ -54141,7 +54141,7 @@
         <v>2640</v>
       </c>
       <c r="S880" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="881">
@@ -54202,7 +54202,7 @@
         <v>104000</v>
       </c>
       <c r="S881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882">
@@ -54324,7 +54324,7 @@
         <v>720</v>
       </c>
       <c r="S883" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="884">
@@ -54446,7 +54446,7 @@
         <v>495825</v>
       </c>
       <c r="S885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886">
@@ -54507,7 +54507,7 @@
         <v>5038104</v>
       </c>
       <c r="S886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887">
@@ -54629,7 +54629,7 @@
         <v>2200</v>
       </c>
       <c r="S888" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -54690,7 +54690,7 @@
         <v>127055</v>
       </c>
       <c r="S889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890">
@@ -54751,7 +54751,7 @@
         <v>2327210</v>
       </c>
       <c r="S890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891">
@@ -54873,7 +54873,7 @@
         <v>6082036</v>
       </c>
       <c r="S892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893">
@@ -54934,7 +54934,7 @@
         <v>12277</v>
       </c>
       <c r="S893" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -54995,7 +54995,7 @@
         <v>187156</v>
       </c>
       <c r="S894" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895">
@@ -55056,7 +55056,7 @@
         <v>5400</v>
       </c>
       <c r="S895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896">
@@ -55117,7 +55117,7 @@
         <v>23737888</v>
       </c>
       <c r="S896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897">
@@ -55178,7 +55178,7 @@
         <v>14580</v>
       </c>
       <c r="S897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898">
@@ -55239,7 +55239,7 @@
         <v>9720</v>
       </c>
       <c r="S898" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="899">
@@ -55422,7 +55422,7 @@
         <v>11880</v>
       </c>
       <c r="S901" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="902">
@@ -55483,7 +55483,7 @@
         <v>2216642</v>
       </c>
       <c r="S902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903">
@@ -55544,7 +55544,7 @@
         <v>14520</v>
       </c>
       <c r="S903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904">
@@ -55788,7 +55788,7 @@
         <v>2618</v>
       </c>
       <c r="S907" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="908">
@@ -55849,7 +55849,7 @@
         <v>6250365</v>
       </c>
       <c r="S908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909">
@@ -56093,7 +56093,7 @@
         <v>1771854</v>
       </c>
       <c r="S912" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913">
@@ -56154,7 +56154,7 @@
         <v>11891</v>
       </c>
       <c r="S913" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="914">
@@ -56337,7 +56337,7 @@
         <v>54000</v>
       </c>
       <c r="S916" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917">
@@ -56520,7 +56520,7 @@
         <v>33000</v>
       </c>
       <c r="S919" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920">
@@ -56703,7 +56703,7 @@
         <v>13200</v>
       </c>
       <c r="S922" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923">
@@ -56825,7 +56825,7 @@
         <v>16280</v>
       </c>
       <c r="S924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925">
@@ -56886,7 +56886,7 @@
         <v>0</v>
       </c>
       <c r="S925" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926">
@@ -57069,7 +57069,7 @@
         <v>20397345</v>
       </c>
       <c r="S928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929">
@@ -57130,7 +57130,7 @@
         <v>93523</v>
       </c>
       <c r="S929" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="930">
@@ -57313,7 +57313,7 @@
         <v>682894</v>
       </c>
       <c r="S932" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="933">
@@ -57374,7 +57374,7 @@
         <v>1863273</v>
       </c>
       <c r="S933" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934">
@@ -57496,7 +57496,7 @@
         <v>7920</v>
       </c>
       <c r="S935" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936">
@@ -57618,7 +57618,7 @@
         <v>11581488</v>
       </c>
       <c r="S937" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938">
@@ -57679,7 +57679,7 @@
         <v>0</v>
       </c>
       <c r="S938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939">
@@ -57862,7 +57862,7 @@
         <v>405000</v>
       </c>
       <c r="S941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942">
@@ -57923,7 +57923,7 @@
         <v>0</v>
       </c>
       <c r="S942" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943">
@@ -57984,7 +57984,7 @@
         <v>720</v>
       </c>
       <c r="S943" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="944">
@@ -58045,7 +58045,7 @@
         <v>255000</v>
       </c>
       <c r="S944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945">
@@ -58106,7 +58106,7 @@
         <v>245417</v>
       </c>
       <c r="S945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946">
@@ -58289,7 +58289,7 @@
         <v>1888000</v>
       </c>
       <c r="S948" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949">
@@ -58411,7 +58411,7 @@
         <v>59400</v>
       </c>
       <c r="S950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951">
@@ -58533,7 +58533,7 @@
         <v>6568433</v>
       </c>
       <c r="S952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953">
@@ -58594,7 +58594,7 @@
         <v>108900</v>
       </c>
       <c r="S953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954">
@@ -58716,7 +58716,7 @@
         <v>9680</v>
       </c>
       <c r="S955" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956">
@@ -58777,7 +58777,7 @@
         <v>21180</v>
       </c>
       <c r="S956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957">
@@ -58838,7 +58838,7 @@
         <v>280195</v>
       </c>
       <c r="S957" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958">
@@ -59143,7 +59143,7 @@
         <v>8100</v>
       </c>
       <c r="S962" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="963">
@@ -59265,7 +59265,7 @@
         <v>23911324</v>
       </c>
       <c r="S964" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965">
@@ -59326,7 +59326,7 @@
         <v>0</v>
       </c>
       <c r="S965" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966">
@@ -59448,7 +59448,7 @@
         <v>611070</v>
       </c>
       <c r="S967" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="968">
@@ -59509,7 +59509,7 @@
         <v>51600</v>
       </c>
       <c r="S968" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="969">
@@ -59570,7 +59570,7 @@
         <v>3240</v>
       </c>
       <c r="S969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970">
@@ -59631,7 +59631,7 @@
         <v>123426</v>
       </c>
       <c r="S970" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="971">
@@ -59936,7 +59936,7 @@
         <v>1058063</v>
       </c>
       <c r="S975" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976">
@@ -59997,7 +59997,7 @@
         <v>5120</v>
       </c>
       <c r="S976" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="977">
@@ -60058,7 +60058,7 @@
         <v>97000</v>
       </c>
       <c r="S977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978">
@@ -60119,7 +60119,7 @@
         <v>99900</v>
       </c>
       <c r="S978" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="979">
@@ -60302,7 +60302,7 @@
         <v>1185640</v>
       </c>
       <c r="S981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982">
@@ -60424,7 +60424,7 @@
         <v>104000</v>
       </c>
       <c r="S983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984">
@@ -60485,7 +60485,7 @@
         <v>25200</v>
       </c>
       <c r="S984" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="985">
@@ -60607,7 +60607,7 @@
         <v>720464</v>
       </c>
       <c r="S986" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="987">
@@ -60790,7 +60790,7 @@
         <v>11400</v>
       </c>
       <c r="S989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990">
@@ -60851,7 +60851,7 @@
         <v>0</v>
       </c>
       <c r="S990" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="991">
@@ -60973,7 +60973,7 @@
         <v>3330</v>
       </c>
       <c r="S992" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="993">
@@ -61095,7 +61095,7 @@
         <v>1600</v>
       </c>
       <c r="S994" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="995">
@@ -61278,7 +61278,7 @@
         <v>12900</v>
       </c>
       <c r="S997" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="998">
@@ -61461,7 +61461,7 @@
         <v>4860</v>
       </c>
       <c r="S1000" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1001">
@@ -61522,7 +61522,7 @@
         <v>1288594</v>
       </c>
       <c r="S1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002">
@@ -61644,7 +61644,7 @@
         <v>720464</v>
       </c>
       <c r="S1003" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1004">
@@ -61766,7 +61766,7 @@
         <v>3700</v>
       </c>
       <c r="S1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1006">
@@ -61888,7 +61888,7 @@
         <v>59400</v>
       </c>
       <c r="S1007" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008">
@@ -61949,7 +61949,7 @@
         <v>86000</v>
       </c>
       <c r="S1008" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1009">
@@ -62010,7 +62010,7 @@
         <v>50600</v>
       </c>
       <c r="S1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010">
@@ -62132,7 +62132,7 @@
         <v>6160</v>
       </c>
       <c r="S1011" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1012">
@@ -62193,7 +62193,7 @@
         <v>115027728</v>
       </c>
       <c r="S1012" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013">
@@ -62376,7 +62376,7 @@
         <v>8800</v>
       </c>
       <c r="S1015" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1016">
@@ -62437,7 +62437,7 @@
         <v>886186</v>
       </c>
       <c r="S1016" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017">
@@ -62559,7 +62559,7 @@
         <v>1344000</v>
       </c>
       <c r="S1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019">
@@ -62742,7 +62742,7 @@
         <v>2108589</v>
       </c>
       <c r="S1021" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022">
@@ -62925,7 +62925,7 @@
         <v>4433754</v>
       </c>
       <c r="S1024" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1025">
@@ -63169,7 +63169,7 @@
         <v>3485563</v>
       </c>
       <c r="S1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029">
@@ -63230,7 +63230,7 @@
         <v>141900</v>
       </c>
       <c r="S1029" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1030">
@@ -63291,7 +63291,7 @@
         <v>11880</v>
       </c>
       <c r="S1030" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031">
@@ -63352,7 +63352,7 @@
         <v>19800</v>
       </c>
       <c r="S1031" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1032">
@@ -63413,7 +63413,7 @@
         <v>10120</v>
       </c>
       <c r="S1032" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1033">
@@ -63474,7 +63474,7 @@
         <v>57202121</v>
       </c>
       <c r="S1033" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034">
@@ -63718,7 +63718,7 @@
         <v>3710571</v>
       </c>
       <c r="S1037" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1038">
@@ -63779,7 +63779,7 @@
         <v>139915152</v>
       </c>
       <c r="S1038" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1039">
@@ -63901,7 +63901,7 @@
         <v>57006</v>
       </c>
       <c r="S1040" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041">
@@ -64023,7 +64023,7 @@
         <v>99900</v>
       </c>
       <c r="S1042" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043">
@@ -64145,7 +64145,7 @@
         <v>59400</v>
       </c>
       <c r="S1044" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1045">
@@ -64206,7 +64206,7 @@
         <v>0</v>
       </c>
       <c r="S1045" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1046">
@@ -64328,7 +64328,7 @@
         <v>6000</v>
       </c>
       <c r="S1047" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048">
@@ -64389,7 +64389,7 @@
         <v>3520</v>
       </c>
       <c r="S1048" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -64450,7 +64450,7 @@
         <v>58020</v>
       </c>
       <c r="S1049" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050">
@@ -64572,7 +64572,7 @@
         <v>93600</v>
       </c>
       <c r="S1051" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052">
@@ -64633,7 +64633,7 @@
         <v>2369460</v>
       </c>
       <c r="S1052" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053">
@@ -64877,7 +64877,7 @@
         <v>180000</v>
       </c>
       <c r="S1056" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1057">
@@ -64999,7 +64999,7 @@
         <v>3567057</v>
       </c>
       <c r="S1058" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059">
@@ -65060,7 +65060,7 @@
         <v>9720</v>
       </c>
       <c r="S1059" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060">
@@ -65121,7 +65121,7 @@
         <v>11840</v>
       </c>
       <c r="S1060" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1061">
@@ -65182,7 +65182,7 @@
         <v>52800</v>
       </c>
       <c r="S1061" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1062">
@@ -65243,7 +65243,7 @@
         <v>19980</v>
       </c>
       <c r="S1062" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1063">
@@ -65548,7 +65548,7 @@
         <v>80319</v>
       </c>
       <c r="S1067" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068">
@@ -65914,7 +65914,7 @@
         <v>5072</v>
       </c>
       <c r="S1073" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074">
@@ -66036,7 +66036,7 @@
         <v>160200</v>
       </c>
       <c r="S1075" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076">
@@ -66097,7 +66097,7 @@
         <v>415260</v>
       </c>
       <c r="S1076" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1077">
@@ -66158,7 +66158,7 @@
         <v>2640</v>
       </c>
       <c r="S1077" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1078">
@@ -66219,7 +66219,7 @@
         <v>1587600</v>
       </c>
       <c r="S1078" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1079">
@@ -66280,7 +66280,7 @@
         <v>160200</v>
       </c>
       <c r="S1079" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1080">
@@ -66585,7 +66585,7 @@
         <v>443409</v>
       </c>
       <c r="S1084" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1085">
@@ -66646,7 +66646,7 @@
         <v>72900</v>
       </c>
       <c r="S1085" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1086">
@@ -66707,7 +66707,7 @@
         <v>27000</v>
       </c>
       <c r="S1086" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1087">
@@ -66768,7 +66768,7 @@
         <v>59400</v>
       </c>
       <c r="S1087" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1088">
@@ -67012,7 +67012,7 @@
         <v>6160</v>
       </c>
       <c r="S1091" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1092">
@@ -67073,7 +67073,7 @@
         <v>286758144</v>
       </c>
       <c r="S1092" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1093">
@@ -67134,7 +67134,7 @@
         <v>286758144</v>
       </c>
       <c r="S1093" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1094">
@@ -67256,7 +67256,7 @@
         <v>5858624</v>
       </c>
       <c r="S1095" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1096">
@@ -67378,7 +67378,7 @@
         <v>256645</v>
       </c>
       <c r="S1097" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1098">
@@ -67439,7 +67439,7 @@
         <v>140600</v>
       </c>
       <c r="S1098" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1099">
@@ -67500,7 +67500,7 @@
         <v>69918</v>
       </c>
       <c r="S1099" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1100">
@@ -67561,7 +67561,7 @@
         <v>0</v>
       </c>
       <c r="S1100" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1101">
@@ -67622,7 +67622,7 @@
         <v>28800</v>
       </c>
       <c r="S1101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1102">
@@ -67683,7 +67683,7 @@
         <v>43254</v>
       </c>
       <c r="S1102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1103">
@@ -67927,7 +67927,7 @@
         <v>584796</v>
       </c>
       <c r="S1106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1107">
@@ -67988,7 +67988,7 @@
         <v>2220</v>
       </c>
       <c r="S1107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1108">
@@ -68171,7 +68171,7 @@
         <v>1620</v>
       </c>
       <c r="S1110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1111">
@@ -68415,7 +68415,7 @@
         <v>34200</v>
       </c>
       <c r="S1114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1115">
@@ -68476,7 +68476,7 @@
         <v>59190</v>
       </c>
       <c r="S1115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1116">
@@ -68537,7 +68537,7 @@
         <v>67590</v>
       </c>
       <c r="S1116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1117">
@@ -68598,7 +68598,7 @@
         <v>364500</v>
       </c>
       <c r="S1117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1118">
@@ -68659,7 +68659,7 @@
         <v>10120</v>
       </c>
       <c r="S1118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1119">
@@ -68720,7 +68720,7 @@
         <v>136420</v>
       </c>
       <c r="S1119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1120">
@@ -68781,7 +68781,7 @@
         <v>213253</v>
       </c>
       <c r="S1120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1121">
@@ -68842,7 +68842,7 @@
         <v>97000</v>
       </c>
       <c r="S1121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1122">
@@ -68903,7 +68903,7 @@
         <v>1657600</v>
       </c>
       <c r="S1122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1123">
@@ -69086,7 +69086,7 @@
         <v>5760</v>
       </c>
       <c r="S1125" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1126">
@@ -69147,7 +69147,7 @@
         <v>25200</v>
       </c>
       <c r="S1126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1127">
@@ -69208,7 +69208,7 @@
         <v>0</v>
       </c>
       <c r="S1127" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1128">
@@ -69330,7 +69330,7 @@
         <v>4860</v>
       </c>
       <c r="S1129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1130">
@@ -69391,7 +69391,7 @@
         <v>19951611</v>
       </c>
       <c r="S1130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1131">
@@ -69452,7 +69452,7 @@
         <v>28800</v>
       </c>
       <c r="S1131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1132">
@@ -69513,7 +69513,7 @@
         <v>0</v>
       </c>
       <c r="S1132" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1133">
@@ -69696,7 +69696,7 @@
         <v>12900</v>
       </c>
       <c r="S1135" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1136">
@@ -69940,7 +69940,7 @@
         <v>5120</v>
       </c>
       <c r="S1139" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1140">
@@ -70123,7 +70123,7 @@
         <v>7454236</v>
       </c>
       <c r="S1142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1143">
@@ -70306,7 +70306,7 @@
         <v>38000</v>
       </c>
       <c r="S1145" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1146">
@@ -70367,7 +70367,7 @@
         <v>6210</v>
       </c>
       <c r="S1146" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1147">
@@ -70489,7 +70489,7 @@
         <v>3190065</v>
       </c>
       <c r="S1148" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1149">
@@ -70855,7 +70855,7 @@
         <v>105155</v>
       </c>
       <c r="S1154" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1155">
@@ -70916,7 +70916,7 @@
         <v>3960</v>
       </c>
       <c r="S1155" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1156">
@@ -71038,7 +71038,7 @@
         <v>66000</v>
       </c>
       <c r="S1157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158">
@@ -71221,7 +71221,7 @@
         <v>728240</v>
       </c>
       <c r="S1160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161">
@@ -71282,7 +71282,7 @@
         <v>2348120</v>
       </c>
       <c r="S1161" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1162">
@@ -71343,7 +71343,7 @@
         <v>0</v>
       </c>
       <c r="S1162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1163">
@@ -71465,7 +71465,7 @@
         <v>42240</v>
       </c>
       <c r="S1164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165">
@@ -71526,7 +71526,7 @@
         <v>8350571</v>
       </c>
       <c r="S1165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166">
@@ -71709,7 +71709,7 @@
         <v>1146815</v>
       </c>
       <c r="S1168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1169">
@@ -71770,7 +71770,7 @@
         <v>25800</v>
       </c>
       <c r="S1169" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1170">
@@ -71953,7 +71953,7 @@
         <v>132000</v>
       </c>
       <c r="S1172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173">
@@ -72075,7 +72075,7 @@
         <v>8641410</v>
       </c>
       <c r="S1174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175">
@@ -72197,7 +72197,7 @@
         <v>23956289</v>
       </c>
       <c r="S1176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1177">
@@ -72319,7 +72319,7 @@
         <v>10800</v>
       </c>
       <c r="S1178" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1179">
@@ -72502,7 +72502,7 @@
         <v>1263925</v>
       </c>
       <c r="S1181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1182">
@@ -72624,7 +72624,7 @@
         <v>0</v>
       </c>
       <c r="S1183" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1184">
@@ -72685,7 +72685,7 @@
         <v>480660</v>
       </c>
       <c r="S1184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1185">
@@ -72746,7 +72746,7 @@
         <v>1997169</v>
       </c>
       <c r="S1185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1186">
@@ -72807,7 +72807,7 @@
         <v>59400</v>
       </c>
       <c r="S1186" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1187">
@@ -72929,7 +72929,7 @@
         <v>663076</v>
       </c>
       <c r="S1188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189">
@@ -72990,7 +72990,7 @@
         <v>160200</v>
       </c>
       <c r="S1189" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190">
@@ -73051,7 +73051,7 @@
         <v>76655</v>
       </c>
       <c r="S1190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1191">
@@ -73356,7 +73356,7 @@
         <v>75000</v>
       </c>
       <c r="S1195" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1196">
@@ -73417,7 +73417,7 @@
         <v>2617191</v>
       </c>
       <c r="S1196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197">
@@ -73478,7 +73478,7 @@
         <v>23830848</v>
       </c>
       <c r="S1197" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1198">
@@ -73539,7 +73539,7 @@
         <v>391055</v>
       </c>
       <c r="S1198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1199">
@@ -73600,7 +73600,7 @@
         <v>1118010</v>
       </c>
       <c r="S1199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200">
@@ -73722,7 +73722,7 @@
         <v>1188410</v>
       </c>
       <c r="S1201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1202">
@@ -73783,7 +73783,7 @@
         <v>30360</v>
       </c>
       <c r="S1202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203">
@@ -73844,7 +73844,7 @@
         <v>103336</v>
       </c>
       <c r="S1203" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1204">
@@ -73966,7 +73966,7 @@
         <v>6660</v>
       </c>
       <c r="S1205" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1206">
@@ -74271,7 +74271,7 @@
         <v>325624</v>
       </c>
       <c r="S1210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1211">
@@ -74332,7 +74332,7 @@
         <v>641855</v>
       </c>
       <c r="S1211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1212">
@@ -74393,7 +74393,7 @@
         <v>658600</v>
       </c>
       <c r="S1212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1213">
@@ -74454,7 +74454,7 @@
         <v>60800</v>
       </c>
       <c r="S1213" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1214">
@@ -74515,7 +74515,7 @@
         <v>3018430</v>
       </c>
       <c r="S1214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215">
@@ -74637,7 +74637,7 @@
         <v>19980</v>
       </c>
       <c r="S1216" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1217">
@@ -74698,7 +74698,7 @@
         <v>325778</v>
       </c>
       <c r="S1217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1218">
@@ -74759,7 +74759,7 @@
         <v>998525</v>
       </c>
       <c r="S1218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1219">
@@ -74820,7 +74820,7 @@
         <v>39600</v>
       </c>
       <c r="S1219" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1220">
@@ -74881,7 +74881,7 @@
         <v>1760</v>
       </c>
       <c r="S1220" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1221">
@@ -75003,7 +75003,7 @@
         <v>54286</v>
       </c>
       <c r="S1222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1223">
@@ -75125,7 +75125,7 @@
         <v>168000</v>
       </c>
       <c r="S1224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1225">
@@ -75186,7 +75186,7 @@
         <v>5280</v>
       </c>
       <c r="S1225" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1226">
@@ -75369,7 +75369,7 @@
         <v>880</v>
       </c>
       <c r="S1228" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1229">
@@ -75430,7 +75430,7 @@
         <v>109641</v>
       </c>
       <c r="S1229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1230">
@@ -75491,7 +75491,7 @@
         <v>3240</v>
       </c>
       <c r="S1230" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1231">
@@ -75552,7 +75552,7 @@
         <v>54000</v>
       </c>
       <c r="S1231" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1232">
@@ -75613,7 +75613,7 @@
         <v>26795</v>
       </c>
       <c r="S1232" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1233">
@@ -75857,7 +75857,7 @@
         <v>382176</v>
       </c>
       <c r="S1236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237">
@@ -75979,7 +75979,7 @@
         <v>986802</v>
       </c>
       <c r="S1238" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1239">
@@ -76040,7 +76040,7 @@
         <v>788286</v>
       </c>
       <c r="S1239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1240">
@@ -76223,7 +76223,7 @@
         <v>1115500</v>
       </c>
       <c r="S1242" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1243">
@@ -76345,7 +76345,7 @@
         <v>145500</v>
       </c>
       <c r="S1244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1245">
@@ -76406,7 +76406,7 @@
         <v>1488694</v>
       </c>
       <c r="S1245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1246">
@@ -76528,7 +76528,7 @@
         <v>297310</v>
       </c>
       <c r="S1247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1248">
@@ -76589,7 +76589,7 @@
         <v>3080</v>
       </c>
       <c r="S1248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1249">
@@ -76772,7 +76772,7 @@
         <v>0</v>
       </c>
       <c r="S1251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1252">
@@ -76833,7 +76833,7 @@
         <v>0</v>
       </c>
       <c r="S1252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1253">
@@ -76894,7 +76894,7 @@
         <v>0</v>
       </c>
       <c r="S1253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1254">
@@ -76955,7 +76955,7 @@
         <v>0</v>
       </c>
       <c r="S1254" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1255">
@@ -77016,7 +77016,7 @@
         <v>4860</v>
       </c>
       <c r="S1255" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1256">
@@ -77077,7 +77077,7 @@
         <v>1401660</v>
       </c>
       <c r="S1256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1257">
@@ -77199,7 +77199,7 @@
         <v>14580</v>
       </c>
       <c r="S1258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1259">
@@ -77382,7 +77382,7 @@
         <v>11880</v>
       </c>
       <c r="S1261" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1262">
@@ -77443,7 +77443,7 @@
         <v>405000</v>
       </c>
       <c r="S1262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263">
@@ -77687,7 +77687,7 @@
         <v>5236696</v>
       </c>
       <c r="S1266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1267">
@@ -77748,7 +77748,7 @@
         <v>59400</v>
       </c>
       <c r="S1267" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1268">
@@ -77809,7 +77809,7 @@
         <v>768251</v>
       </c>
       <c r="S1268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1269">
@@ -77870,7 +77870,7 @@
         <v>243000</v>
       </c>
       <c r="S1269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1270">
@@ -78175,7 +78175,7 @@
         <v>121500</v>
       </c>
       <c r="S1274" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1275">
@@ -78236,7 +78236,7 @@
         <v>1103558</v>
       </c>
       <c r="S1275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1276">
@@ -78297,7 +78297,7 @@
         <v>3071000</v>
       </c>
       <c r="S1276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1277">
@@ -78358,7 +78358,7 @@
         <v>7920</v>
       </c>
       <c r="S1277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1278">
@@ -78541,7 +78541,7 @@
         <v>15200</v>
       </c>
       <c r="S1280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1281">
@@ -78663,7 +78663,7 @@
         <v>284800</v>
       </c>
       <c r="S1282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1283">
@@ -78846,7 +78846,7 @@
         <v>6713768</v>
       </c>
       <c r="S1285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1286">
@@ -78907,7 +78907,7 @@
         <v>54000</v>
       </c>
       <c r="S1286" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1287">
@@ -78968,7 +78968,7 @@
         <v>19980</v>
       </c>
       <c r="S1287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1288">
@@ -79029,7 +79029,7 @@
         <v>475050</v>
       </c>
       <c r="S1288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1289">
@@ -79090,7 +79090,7 @@
         <v>29761</v>
       </c>
       <c r="S1289" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1290">
@@ -79151,7 +79151,7 @@
         <v>180000</v>
       </c>
       <c r="S1290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1291">
@@ -79212,7 +79212,7 @@
         <v>95877</v>
       </c>
       <c r="S1291" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1292">
@@ -79273,7 +79273,7 @@
         <v>12744000</v>
       </c>
       <c r="S1292" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1293">
@@ -79334,7 +79334,7 @@
         <v>0</v>
       </c>
       <c r="S1293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1294">
@@ -79395,7 +79395,7 @@
         <v>6660</v>
       </c>
       <c r="S1294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1295">
@@ -79517,7 +79517,7 @@
         <v>950362</v>
       </c>
       <c r="S1296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1297">
@@ -79639,7 +79639,7 @@
         <v>534000</v>
       </c>
       <c r="S1298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1299">
@@ -79700,7 +79700,7 @@
         <v>534000</v>
       </c>
       <c r="S1299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1300">
@@ -79761,7 +79761,7 @@
         <v>0</v>
       </c>
       <c r="S1300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1301">
@@ -79822,7 +79822,7 @@
         <v>14401061</v>
       </c>
       <c r="S1301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1302">
@@ -79883,7 +79883,7 @@
         <v>3960</v>
       </c>
       <c r="S1302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1303">
@@ -80127,7 +80127,7 @@
         <v>221211</v>
       </c>
       <c r="S1306" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1307">
@@ -80310,7 +80310,7 @@
         <v>4007566</v>
       </c>
       <c r="S1309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1310">
@@ -80493,7 +80493,7 @@
         <v>10800</v>
       </c>
       <c r="S1312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1313">
@@ -80615,7 +80615,7 @@
         <v>12900</v>
       </c>
       <c r="S1314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1315">
@@ -80737,7 +80737,7 @@
         <v>11400</v>
       </c>
       <c r="S1316" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1317">
@@ -80798,7 +80798,7 @@
         <v>44200</v>
       </c>
       <c r="S1317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1318">
@@ -80981,7 +80981,7 @@
         <v>4320000</v>
       </c>
       <c r="S1320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1321">
@@ -81347,7 +81347,7 @@
         <v>10544952</v>
       </c>
       <c r="S1326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1327">
@@ -81469,7 +81469,7 @@
         <v>7613567</v>
       </c>
       <c r="S1328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1329">
@@ -81530,7 +81530,7 @@
         <v>5280</v>
       </c>
       <c r="S1329" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1330">
@@ -81591,7 +81591,7 @@
         <v>32400</v>
       </c>
       <c r="S1330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1331">
@@ -81652,7 +81652,7 @@
         <v>11840</v>
       </c>
       <c r="S1331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1332">
@@ -81713,7 +81713,7 @@
         <v>5357573</v>
       </c>
       <c r="S1332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1333">
@@ -81835,7 +81835,7 @@
         <v>762402</v>
       </c>
       <c r="S1334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1335">
@@ -81896,7 +81896,7 @@
         <v>7560</v>
       </c>
       <c r="S1335" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1336">
@@ -82079,7 +82079,7 @@
         <v>21555537</v>
       </c>
       <c r="S1338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1339">
@@ -82140,7 +82140,7 @@
         <v>60800</v>
       </c>
       <c r="S1339" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1340">
@@ -82262,7 +82262,7 @@
         <v>39600</v>
       </c>
       <c r="S1341" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1342">
@@ -82384,7 +82384,7 @@
         <v>753062</v>
       </c>
       <c r="S1343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1344">
@@ -82506,7 +82506,7 @@
         <v>7040</v>
       </c>
       <c r="S1345" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1346">
@@ -82567,7 +82567,7 @@
         <v>22000</v>
       </c>
       <c r="S1346" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1347">
@@ -82628,7 +82628,7 @@
         <v>493293</v>
       </c>
       <c r="S1347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1348">
@@ -82689,7 +82689,7 @@
         <v>14397737</v>
       </c>
       <c r="S1348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1349">
@@ -82750,7 +82750,7 @@
         <v>249200</v>
       </c>
       <c r="S1349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1350">
@@ -82811,7 +82811,7 @@
         <v>0</v>
       </c>
       <c r="S1350" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1351">
@@ -82872,7 +82872,7 @@
         <v>21555537</v>
       </c>
       <c r="S1351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1352">
@@ -82994,7 +82994,7 @@
         <v>529119</v>
       </c>
       <c r="S1353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1354">
@@ -83055,7 +83055,7 @@
         <v>2220</v>
       </c>
       <c r="S1354" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1355">
@@ -83116,7 +83116,7 @@
         <v>3840</v>
       </c>
       <c r="S1355" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1356">
@@ -83299,7 +83299,7 @@
         <v>0</v>
       </c>
       <c r="S1358" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1359">
@@ -83360,7 +83360,7 @@
         <v>3200</v>
       </c>
       <c r="S1359" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1360">
@@ -83543,7 +83543,7 @@
         <v>0</v>
       </c>
       <c r="S1362" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1363">
@@ -83665,7 +83665,7 @@
         <v>108900</v>
       </c>
       <c r="S1364" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1365">
@@ -83726,7 +83726,7 @@
         <v>29208</v>
       </c>
       <c r="S1365" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1366">
@@ -83848,7 +83848,7 @@
         <v>1586559</v>
       </c>
       <c r="S1367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1368">
@@ -83970,7 +83970,7 @@
         <v>151609</v>
       </c>
       <c r="S1369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1370">
@@ -84031,7 +84031,7 @@
         <v>4440</v>
       </c>
       <c r="S1370" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -84153,7 +84153,7 @@
         <v>223321</v>
       </c>
       <c r="S1372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1373">
@@ -84275,7 +84275,7 @@
         <v>798684</v>
       </c>
       <c r="S1374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1375">
@@ -84336,7 +84336,7 @@
         <v>21600</v>
       </c>
       <c r="S1375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1376">
@@ -84397,7 +84397,7 @@
         <v>2466427</v>
       </c>
       <c r="S1376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1377">
@@ -84519,7 +84519,7 @@
         <v>123258</v>
       </c>
       <c r="S1378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1379">
@@ -84641,7 +84641,7 @@
         <v>300000</v>
       </c>
       <c r="S1380" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1381">
@@ -84702,7 +84702,7 @@
         <v>7040</v>
       </c>
       <c r="S1381" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1382">
@@ -84763,7 +84763,7 @@
         <v>5280</v>
       </c>
       <c r="S1382" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1383">
@@ -85068,7 +85068,7 @@
         <v>39600</v>
       </c>
       <c r="S1387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1388">
@@ -85129,7 +85129,7 @@
         <v>3330</v>
       </c>
       <c r="S1388" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1389">
@@ -85190,7 +85190,7 @@
         <v>59400</v>
       </c>
       <c r="S1389" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1390">
@@ -85251,7 +85251,7 @@
         <v>17800</v>
       </c>
       <c r="S1390" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1391">
@@ -85312,7 +85312,7 @@
         <v>35200</v>
       </c>
       <c r="S1391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1392">
@@ -85495,7 +85495,7 @@
         <v>1320</v>
       </c>
       <c r="S1394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1395">
@@ -85556,7 +85556,7 @@
         <v>0</v>
       </c>
       <c r="S1395" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1396">
@@ -85617,7 +85617,7 @@
         <v>155750</v>
       </c>
       <c r="S1396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1397">
@@ -85739,7 +85739,7 @@
         <v>6055378</v>
       </c>
       <c r="S1398" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1399">
@@ -85861,7 +85861,7 @@
         <v>0</v>
       </c>
       <c r="S1400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1401">
@@ -85983,7 +85983,7 @@
         <v>335701</v>
       </c>
       <c r="S1402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1403">
@@ -86105,7 +86105,7 @@
         <v>1111881</v>
       </c>
       <c r="S1404" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1405">
@@ -86166,7 +86166,7 @@
         <v>13200</v>
       </c>
       <c r="S1405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1406">
@@ -86288,7 +86288,7 @@
         <v>206760</v>
       </c>
       <c r="S1407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1408">
@@ -86410,7 +86410,7 @@
         <v>87400</v>
       </c>
       <c r="S1409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1410">
@@ -86532,7 +86532,7 @@
         <v>509529</v>
       </c>
       <c r="S1411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1412">
@@ -86593,7 +86593,7 @@
         <v>59400</v>
       </c>
       <c r="S1412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1413">
@@ -86715,7 +86715,7 @@
         <v>99900</v>
       </c>
       <c r="S1414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1415">
@@ -86837,7 +86837,7 @@
         <v>125000</v>
       </c>
       <c r="S1416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1417">
@@ -86898,7 +86898,7 @@
         <v>728240</v>
       </c>
       <c r="S1417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1418">
@@ -86959,7 +86959,7 @@
         <v>7108487</v>
       </c>
       <c r="S1418" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1419">
@@ -87020,7 +87020,7 @@
         <v>8640</v>
       </c>
       <c r="S1419" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1420">
@@ -87081,7 +87081,7 @@
         <v>5280</v>
       </c>
       <c r="S1420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1421">
@@ -87386,7 +87386,7 @@
         <v>93600</v>
       </c>
       <c r="S1425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1426">
@@ -87447,7 +87447,7 @@
         <v>1400</v>
       </c>
       <c r="S1426" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1427">
@@ -87508,7 +87508,7 @@
         <v>495000</v>
       </c>
       <c r="S1427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1428">
@@ -87691,7 +87691,7 @@
         <v>34394</v>
       </c>
       <c r="S1430" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -87874,7 +87874,7 @@
         <v>356163</v>
       </c>
       <c r="S1433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1434">
@@ -87935,7 +87935,7 @@
         <v>10800</v>
       </c>
       <c r="S1434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1435">
@@ -87996,7 +87996,7 @@
         <v>68400</v>
       </c>
       <c r="S1435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1436">
@@ -88118,7 +88118,7 @@
         <v>14580</v>
       </c>
       <c r="S1437" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1438">
@@ -88240,7 +88240,7 @@
         <v>654750</v>
       </c>
       <c r="S1439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1440">
@@ -88301,7 +88301,7 @@
         <v>39600</v>
       </c>
       <c r="S1440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1441">
@@ -88362,7 +88362,7 @@
         <v>15200</v>
       </c>
       <c r="S1441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1442">
@@ -88606,7 +88606,7 @@
         <v>77400</v>
       </c>
       <c r="S1445" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1446">
@@ -88667,7 +88667,7 @@
         <v>2220</v>
       </c>
       <c r="S1446" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1447">
@@ -88911,7 +88911,7 @@
         <v>5280</v>
       </c>
       <c r="S1450" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1451">
@@ -89033,7 +89033,7 @@
         <v>1626049</v>
       </c>
       <c r="S1452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1453">
@@ -89155,7 +89155,7 @@
         <v>96936</v>
       </c>
       <c r="S1454" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1455">
@@ -89277,7 +89277,7 @@
         <v>1924018</v>
       </c>
       <c r="S1456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1457">
@@ -89399,7 +89399,7 @@
         <v>720</v>
       </c>
       <c r="S1458" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1459">
@@ -89460,7 +89460,7 @@
         <v>148197</v>
       </c>
       <c r="S1459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1460">
@@ -89521,7 +89521,7 @@
         <v>40081</v>
       </c>
       <c r="S1460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1461">
@@ -89704,7 +89704,7 @@
         <v>1080000</v>
       </c>
       <c r="S1463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1464">
@@ -89765,7 +89765,7 @@
         <v>54000</v>
       </c>
       <c r="S1464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1465">
@@ -89826,7 +89826,7 @@
         <v>52307</v>
       </c>
       <c r="S1465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1466">
@@ -90009,7 +90009,7 @@
         <v>17200</v>
       </c>
       <c r="S1468" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1469">
@@ -90192,7 +90192,7 @@
         <v>16280</v>
       </c>
       <c r="S1471" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1472">
@@ -90497,7 +90497,7 @@
         <v>960</v>
       </c>
       <c r="S1476" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1477">
@@ -90741,7 +90741,7 @@
         <v>99900</v>
       </c>
       <c r="S1480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1481">
@@ -90802,7 +90802,7 @@
         <v>10082143</v>
       </c>
       <c r="S1481" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1482">
@@ -90863,7 +90863,7 @@
         <v>1480</v>
       </c>
       <c r="S1482" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1483">
@@ -90924,7 +90924,7 @@
         <v>14815</v>
       </c>
       <c r="S1483" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1484">
@@ -91046,7 +91046,7 @@
         <v>102571</v>
       </c>
       <c r="S1485" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1486">
@@ -91107,7 +91107,7 @@
         <v>76000</v>
       </c>
       <c r="S1486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1487">
@@ -91229,7 +91229,7 @@
         <v>39600</v>
       </c>
       <c r="S1488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1489">
@@ -91290,7 +91290,7 @@
         <v>5400</v>
       </c>
       <c r="S1489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1490">
@@ -91412,7 +91412,7 @@
         <v>4035946</v>
       </c>
       <c r="S1491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1492">
@@ -91534,7 +91534,7 @@
         <v>0</v>
       </c>
       <c r="S1493" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1494">
@@ -91595,7 +91595,7 @@
         <v>1920</v>
       </c>
       <c r="S1494" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1495">
@@ -91656,7 +91656,7 @@
         <v>1239375</v>
       </c>
       <c r="S1495" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1496">
@@ -91717,7 +91717,7 @@
         <v>24923</v>
       </c>
       <c r="S1496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1497">
@@ -91778,7 +91778,7 @@
         <v>77400</v>
       </c>
       <c r="S1497" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1498">
@@ -91839,7 +91839,7 @@
         <v>0</v>
       </c>
       <c r="S1498" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1499">
@@ -92083,7 +92083,7 @@
         <v>5180</v>
       </c>
       <c r="S1502" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1503">
@@ -92144,7 +92144,7 @@
         <v>114000</v>
       </c>
       <c r="S1503" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1504">
@@ -92205,7 +92205,7 @@
         <v>140600</v>
       </c>
       <c r="S1504" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1505">
@@ -92266,7 +92266,7 @@
         <v>12934821</v>
       </c>
       <c r="S1505" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1506">
@@ -92327,7 +92327,7 @@
         <v>52800</v>
       </c>
       <c r="S1506" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1507">
@@ -92388,7 +92388,7 @@
         <v>213600</v>
       </c>
       <c r="S1507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1508">
@@ -92449,7 +92449,7 @@
         <v>10120</v>
       </c>
       <c r="S1508" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1509">
@@ -92571,7 +92571,7 @@
         <v>68400</v>
       </c>
       <c r="S1510" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1511">
@@ -92754,7 +92754,7 @@
         <v>17185</v>
       </c>
       <c r="S1513" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1514">
@@ -92815,7 +92815,7 @@
         <v>195500</v>
       </c>
       <c r="S1514" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1515">
@@ -92998,7 +92998,7 @@
         <v>1920</v>
       </c>
       <c r="S1517" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1518">
@@ -93120,7 +93120,7 @@
         <v>55500</v>
       </c>
       <c r="S1519" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1520">
@@ -93181,7 +93181,7 @@
         <v>7200000</v>
       </c>
       <c r="S1520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1521">
@@ -93425,7 +93425,7 @@
         <v>52000</v>
       </c>
       <c r="S1524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
